--- a/helperFunctions/reports/attendance_data.xlsx
+++ b/helperFunctions/reports/attendance_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,21 +451,272 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2d7735f7-d1b0-4105-8bed-90a26393bb52</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>0cc48425-e098-4458-95ce-cf8a2094e366</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MID001</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>  </t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PRESENT</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Sunday Service</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>e6c2bd2d-18be-41e0-9517-ecb36f39a880</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MID002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Jane Smith</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Sunday Service</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>8d230243-ef1c-4aaf-adca-f13d36dc5ba7</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MID003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Michael Brown</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Sunday Service</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>a82e687a-d45d-4db6-9546-88a5011922ae</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MID004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sunday Service</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1104f40f-bd63-4426-95df-277f9b820261</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MID005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>James Wilson</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sunday Service</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>911e73e8-fbfe-4351-9ba0-857add66e9ee</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MID006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Sophia Martinez</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sunday Service</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>d03c2b71-3288-4178-b2f9-9b4fc7a8c5af</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MID007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ethan Anderson</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sunday Service</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>14dd5a7b-d2b9-4c1d-9979-d00e22d36d91</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MID008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Isabella Garcia</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Sunday Service</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0c9f9e24-a941-4609-91c0-61615c320136</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MID009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Alexander Hernandez</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sunday Service</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>c877d26a-96ac-460a-a389-bd914e2dc1c7</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MID010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mia Robinson</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sunday Service</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
